--- a/log_history/Y4_B2526_Chest_checklist1761800000877_backup@backdoor.com.xlsx
+++ b/log_history/Y4_B2526_Chest_checklist1761800000877_backup@backdoor.com.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C67D70-C5D9-45CD-8422-608E7094A0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7CB7D-61E8-4229-A14E-7C35DA678748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,6 +206,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -238,7 +241,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,25 +584,26 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -609,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -629,7 +633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -649,7 +653,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -669,7 +673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -689,7 +693,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -709,7 +713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -729,7 +733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -749,7 +753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -769,7 +773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -789,7 +793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -809,7 +813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -829,7 +833,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -849,7 +853,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -869,7 +873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -889,7 +893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -909,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -929,7 +933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -949,7 +953,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -969,7 +973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -989,7 +993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1029,7 +1033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>57</v>
       </c>
